--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB3B6C9-6BEC-4879-90A1-FAAE2E2213FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700AAFDA-69E3-4B2E-8F16-9B4057B88B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,32 +672,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D17" s="3">
+        <v>6.7685185185185182E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700AAFDA-69E3-4B2E-8F16-9B4057B88B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833EA4DC-21D3-49AD-9636-BEEBCA4249CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,6 +676,9 @@
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B17" s="3">
+        <v>0.10574074074074075</v>
+      </c>
       <c r="D17" s="3">
         <v>6.7685185185185182E-2</v>
       </c>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833EA4DC-21D3-49AD-9636-BEEBCA4249CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6231507A-56EC-4C9C-843B-DC5589C9E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -682,30 +682,58 @@
       <c r="D17" s="3">
         <v>6.7685185185185182E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F17" s="4">
+        <v>6.7858796296296306E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SUM(B17:F17)</f>
+        <v>0.24128472222222225</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18" s="3">
+        <f t="shared" ref="G18:G22" si="1">SUM(B18:F18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6231507A-56EC-4C9C-843B-DC5589C9E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E2F7D8-2A2F-41BE-83CC-CD47B041E7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,9 +695,12 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B18" s="3">
+        <v>7.211805555555556E-2</v>
+      </c>
       <c r="G18" s="3">
         <f t="shared" ref="G18:G22" si="1">SUM(B18:F18)</f>
-        <v>0</v>
+        <v>7.211805555555556E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E2F7D8-2A2F-41BE-83CC-CD47B041E7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6370D4-02E9-4D3D-9AFD-5C3E091A9FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,15 @@
   <si>
     <t>6회차</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7회차</t>
+  </si>
+  <si>
+    <t>8회차</t>
+  </si>
+  <si>
+    <t>9회차</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,9 +707,12 @@
       <c r="B18" s="3">
         <v>7.211805555555556E-2</v>
       </c>
+      <c r="D18" s="3">
+        <v>2.9166666666666664E-2</v>
+      </c>
       <c r="G18" s="3">
-        <f t="shared" ref="G18:G22" si="1">SUM(B18:F18)</f>
-        <v>7.211805555555556E-2</v>
+        <f t="shared" ref="G18:G25" si="1">SUM(B18:F18)</f>
+        <v>0.10128472222222222</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -735,6 +747,33 @@
         <v>17</v>
       </c>
       <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6370D4-02E9-4D3D-9AFD-5C3E091A9FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711AB94E-9431-4963-B5B9-9C5B97D525E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,9 +710,12 @@
       <c r="D18" s="3">
         <v>2.9166666666666664E-2</v>
       </c>
+      <c r="F18" s="4">
+        <v>6.8414351851851851E-2</v>
+      </c>
       <c r="G18" s="3">
         <f t="shared" ref="G18:G25" si="1">SUM(B18:F18)</f>
-        <v>0.10128472222222222</v>
+        <v>0.16969907407407409</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711AB94E-9431-4963-B5B9-9C5B97D525E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB951415-2529-48E8-8057-84896FA0B2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB951415-2529-48E8-8057-84896FA0B2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DC9786-9FDD-418E-A594-68940F0B3F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,14 +112,23 @@
   </si>
   <si>
     <t>9회차</t>
+  </si>
+  <si>
+    <t>10회차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -138,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +189,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +525,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="5" width="9" style="3"/>
     <col min="6" max="6" width="9" style="4"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -681,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -700,7 +725,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -717,17 +742,29 @@
         <f t="shared" ref="G18:G25" si="1">SUM(B18:F18)</f>
         <v>0.16969907407407409</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="5">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B19" s="3">
+        <v>6.8113425925925938E-2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.5937500000000004E-2</v>
+      </c>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.10405092592592594</v>
+      </c>
+      <c r="I19" s="5">
+        <v>45268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -736,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -745,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -754,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -763,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -772,13 +809,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DC9786-9FDD-418E-A594-68940F0B3F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E4D0C-F42F-4301-9C4F-1675A3AC8237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -756,9 +756,12 @@
       <c r="D19" s="3">
         <v>3.5937500000000004E-2</v>
       </c>
+      <c r="F19" s="4">
+        <v>4.9999999999999996E-2</v>
+      </c>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
-        <v>0.10405092592592594</v>
+        <v>0.15405092592592592</v>
       </c>
       <c r="I19" s="5">
         <v>45268</v>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E4D0C-F42F-4301-9C4F-1675A3AC8237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268D1C23-9387-48A3-B4B2-89E30BF70458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,9 +771,18 @@
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B20" s="3">
+        <v>5.935185185185185E-2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.1527777777777781E-2</v>
+      </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.0879629629629635E-2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45269</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -802,6 +811,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -810,6 +822,10 @@
       <c r="G24" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f>SUM(G17:G25)</f>
+        <v>0.64591435185185198</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268D1C23-9387-48A3-B4B2-89E30BF70458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68FF71-BD38-4D5E-877A-6855E81A10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -777,9 +777,12 @@
       <c r="D20" s="3">
         <v>2.1527777777777781E-2</v>
       </c>
+      <c r="F20" s="4">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>8.0879629629629635E-2</v>
+        <v>0.12949074074074074</v>
       </c>
       <c r="I20" s="5">
         <v>45269</v>
@@ -825,7 +828,7 @@
       </c>
       <c r="I24" s="4">
         <f>SUM(G17:G25)</f>
-        <v>0.64591435185185198</v>
+        <v>0.69452546296296302</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68FF71-BD38-4D5E-877A-6855E81A10BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B2C7D0-E9C6-4BCD-B532-3D166BD99B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -792,9 +792,12 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B21" s="3">
+        <v>4.3043981481481482E-2</v>
+      </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.3043981481481482E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -828,7 +831,7 @@
       </c>
       <c r="I24" s="4">
         <f>SUM(G17:G25)</f>
-        <v>0.69452546296296302</v>
+        <v>0.7375694444444445</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B2C7D0-E9C6-4BCD-B532-3D166BD99B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E7B10-5AC4-444A-9B8E-15FF7DFA8B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
   </si>
   <si>
     <t>9회차</t>
-  </si>
-  <si>
-    <t>10회차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>`</t>
@@ -516,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,9 +791,15 @@
       <c r="B21" s="3">
         <v>4.3043981481481482E-2</v>
       </c>
+      <c r="D21" s="3">
+        <v>2.0659722222222222E-2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4.1412037037037039E-2</v>
+      </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>4.3043981481481482E-2</v>
+        <v>0.10511574074074075</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -831,7 +833,7 @@
       </c>
       <c r="I24" s="4">
         <f>SUM(G17:G25)</f>
-        <v>0.7375694444444445</v>
+        <v>0.79964120370370373</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -849,24 +851,18 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8E7B10-5AC4-444A-9B8E-15FF7DFA8B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DF87F-1D39-4790-80C7-3008C024B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,15 +175,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,14 +188,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,34 +511,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9" style="2"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -545,16 +546,16 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>6.9710648148148147E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3.8645833333333331E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>5.3981481481481484E-2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <f>SUM(B3:F3)</f>
         <v>0.16233796296296296</v>
       </c>
@@ -563,16 +564,16 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>5.0844907407407408E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2.8634259259259262E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>3.6597222222222225E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <f t="shared" ref="G4:G7" si="0">SUM(B4:F4)</f>
         <v>0.1160763888888889</v>
       </c>
@@ -581,16 +582,16 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>5.6319444444444443E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>3.5925925925925924E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>4.0347222222222222E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>0.1325925925925926</v>
       </c>
@@ -599,16 +600,16 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3.7152777777777778E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2.8726851851851851E-2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>3.0775462962962966E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>9.6655092592592584E-2</v>
       </c>
@@ -617,16 +618,16 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>3.0601851851851852E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>3.0983796296296297E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>2.7928240740740743E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>8.9513888888888893E-2</v>
       </c>
@@ -635,16 +636,16 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1.6423611111111111E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1.5532407407407406E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>3.4629629629629628E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <f>SUM(B8:F8)</f>
         <v>6.6585648148148144E-2</v>
       </c>
@@ -653,215 +654,255 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>7.3668981481481488E-2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <f>SUM(B10:F10)</f>
         <v>0.15075231481481483</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="2"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G12" s="2"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="2"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <f>SUM(G3:G12)</f>
         <v>0.81451388888888898</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0.10574074074074075</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>6.7685185185185182E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>6.7858796296296306E-2</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f>SUM(B17:F17)</f>
         <v>0.24128472222222225</v>
       </c>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>7.211805555555556E-2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>6.8414351851851851E-2</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" ref="G18:G25" si="1">SUM(B18:F18)</f>
+      <c r="G18" s="2">
+        <f t="shared" ref="G18:G26" si="1">SUM(B18:F18)</f>
         <v>0.16969907407407409</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>45268</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>6.8113425925925938E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>3.5937500000000004E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>0.15405092592592592</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>45268</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>5.935185185185185E-2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>2.1527777777777781E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>0.12949074074074074</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>45269</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>4.3043981481481482E-2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>2.0659722222222222E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>4.1412037037037039E-2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>0.10511574074074075</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="6">
+        <v>45269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="3">
+      <c r="B22" s="2">
+        <v>4.8819444444444443E-2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.7916666666666668E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.8773148148148149E-2</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11550925925925926</v>
+      </c>
+      <c r="I22" s="6">
+        <v>45270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
+        <f>SUM(G17:G26)</f>
+        <v>0.91515046296296299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="4">
-        <f>SUM(G17:G25)</f>
-        <v>0.79964120370370373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I29" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9DF87F-1D39-4790-80C7-3008C024B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451A3EB5-0063-494A-AF8C-F795C01A88D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,13 +109,6 @@
   </si>
   <si>
     <t>8회차</t>
-  </si>
-  <si>
-    <t>9회차</t>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
@@ -511,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
-  <dimension ref="A2:J29"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -525,7 +518,7 @@
     <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -560,7 +553,7 @@
         <v>0.16233796296296296</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,7 +571,7 @@
         <v>0.1160763888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,7 +589,7 @@
         <v>0.1325925925925926</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -614,7 +607,7 @@
         <v>9.6655092592592584E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -632,7 +625,7 @@
         <v>8.9513888888888893E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -650,7 +643,7 @@
         <v>6.6585648148148144E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -668,25 +661,25 @@
         <v>0.15075231481481483</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="2" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
+      <c r="J14" s="5">
         <f>SUM(G3:G12)</f>
         <v>0.81451388888888898</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,7 +729,7 @@
         <v>6.8414351851851851E-2</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" ref="G18:G26" si="1">SUM(B18:F18)</f>
+        <f t="shared" ref="G18:G25" si="1">SUM(B18:F18)</f>
         <v>0.16969907407407409</v>
       </c>
       <c r="I18" s="6">
@@ -831,18 +824,21 @@
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>22</v>
+      <c r="B23" s="2">
+        <v>2.7581018518518519E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.7025462962962961E-2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.4606481481481483E-2</v>
+      </c>
+      <c r="I23" s="6">
+        <v>45270</v>
       </c>
       <c r="J23" t="s">
         <v>10</v>
@@ -853,58 +849,50 @@
         <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I24" s="6">
+        <v>45270</v>
+      </c>
       <c r="J24" s="3">
-        <f>SUM(G17:G26)</f>
-        <v>0.91515046296296299</v>
+        <f>SUM(G17:G25)</f>
+        <v>0.95975694444444448</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="I25" s="6">
+        <v>45270</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I29" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451A3EB5-0063-494A-AF8C-F795C01A88D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B167943-2D0F-44D3-891E-787A237B3E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -714,8 +714,11 @@
         <v>0.24128472222222225</v>
       </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="6">
+        <v>45267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,7 +739,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -757,7 +760,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -778,7 +781,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -799,7 +802,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -820,7 +823,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -830,12 +833,12 @@
       <c r="D23" s="2">
         <v>1.7025462962962961E-2</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
+      <c r="F23" s="2">
+        <v>4.8043981481481479E-2</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="1"/>
-        <v>4.4606481481481483E-2</v>
+        <v>9.2650462962962962E-2</v>
       </c>
       <c r="I23" s="6">
         <v>45270</v>
@@ -844,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -863,10 +866,11 @@
       </c>
       <c r="J24" s="3">
         <f>SUM(G17:G25)</f>
-        <v>0.95975694444444448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.007800925925926</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -884,12 +888,12 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B167943-2D0F-44D3-891E-787A237B3E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38268B65-A420-442C-9AA5-A487CA9118E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="9555" yWindow="2340" windowWidth="11340" windowHeight="10725" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,7 +868,9 @@
         <f>SUM(G17:G25)</f>
         <v>1.007800925925926</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38268B65-A420-442C-9AA5-A487CA9118E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D91E2-1175-42BC-8735-F6C9F3009916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="2340" windowWidth="11340" windowHeight="10725" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -851,22 +851,22 @@
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>20</v>
+      <c r="E24" s="2">
+        <v>5.0428240740740739E-2</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0428240740740739E-2</v>
       </c>
       <c r="I24" s="6">
         <v>45270</v>
       </c>
       <c r="J24" s="3">
         <f>SUM(G17:G25)</f>
-        <v>1.007800925925926</v>
+        <v>1.0582291666666668</v>
       </c>
       <c r="K24" s="5">
         <v>1</v>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00D91E2-1175-42BC-8735-F6C9F3009916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7C3FC-9675-4B18-B9B2-3027137BCF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,7 +507,7 @@
   <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -854,19 +854,19 @@
       <c r="E24" s="2">
         <v>5.0428240740740739E-2</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
+      <c r="F24" s="2">
+        <v>4.4004629629629623E-2</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="1"/>
-        <v>5.0428240740740739E-2</v>
+        <v>9.4432870370370361E-2</v>
       </c>
       <c r="I24" s="6">
         <v>45270</v>
       </c>
       <c r="J24" s="3">
         <f>SUM(G17:G25)</f>
-        <v>1.0582291666666668</v>
+        <v>1.1022337962962963</v>
       </c>
       <c r="K24" s="5">
         <v>1</v>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7C3FC-9675-4B18-B9B2-3027137BCF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D82F4-D958-42DE-9E6A-3F78A93EA02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="math" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -506,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -904,4 +905,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911709F8-7877-48A6-BB4A-9C6194136CE6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913D82F4-D958-42DE-9E6A-3F78A93EA02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3457E90-1C35-4D33-947C-3CBF4C5CEC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치해석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,21 +509,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
-  <dimension ref="A2:K27"/>
+  <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="6" width="9" style="2"/>
-    <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9" style="2"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,11 +536,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,15 +550,15 @@
       <c r="D3" s="2">
         <v>3.8645833333333331E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>5.3981481481481484E-2</v>
       </c>
-      <c r="G3" s="5">
-        <f>SUM(B3:F3)</f>
+      <c r="H3" s="5">
+        <f>SUM(B3:G3)</f>
         <v>0.16233796296296296</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -564,15 +568,15 @@
       <c r="D4" s="2">
         <v>2.8634259259259262E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>3.6597222222222225E-2</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4:G7" si="0">SUM(B4:F4)</f>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H7" si="0">SUM(B4:G4)</f>
         <v>0.1160763888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -582,15 +586,15 @@
       <c r="E5" s="2">
         <v>3.5925925925925924E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>4.0347222222222222E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>0.1325925925925926</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -600,15 +604,15 @@
       <c r="D6" s="2">
         <v>2.8726851851851851E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>3.0775462962962966E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>9.6655092592592584E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -618,15 +622,15 @@
       <c r="E7" s="2">
         <v>3.0983796296296297E-2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>2.7928240740740743E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>8.9513888888888893E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -636,15 +640,15 @@
       <c r="D8" s="2">
         <v>1.5532407407407406E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>3.4629629629629628E-2</v>
       </c>
-      <c r="G8" s="5">
-        <f>SUM(B8:F8)</f>
+      <c r="H8" s="5">
+        <f>SUM(B8:G8)</f>
         <v>6.6585648148148144E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -654,33 +658,33 @@
       <c r="E10" s="2">
         <v>4.6527777777777779E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>3.0555555555555555E-2</v>
       </c>
-      <c r="G10" s="5">
-        <f>SUM(B10:F10)</f>
+      <c r="H10" s="5">
+        <f>SUM(B10:G10)</f>
         <v>0.15075231481481483</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I14" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="5">
-        <f>SUM(G3:G12)</f>
+      <c r="K14" s="5">
+        <f>SUM(H3:H12)</f>
         <v>0.81451388888888898</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,11 +697,14 @@
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -707,19 +714,19 @@
       <c r="D17" s="2">
         <v>6.7685185185185182E-2</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>6.7858796296296306E-2</v>
       </c>
-      <c r="G17" s="2">
-        <f>SUM(B17:F17)</f>
+      <c r="H17" s="2">
+        <f>SUM(B17:G17)</f>
         <v>0.24128472222222225</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="6">
+      <c r="I17" s="2"/>
+      <c r="J17" s="6">
         <v>45267</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -729,18 +736,18 @@
       <c r="D18" s="2">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>6.8414351851851851E-2</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" ref="G18:G25" si="1">SUM(B18:F18)</f>
+      <c r="H18" s="2">
+        <f t="shared" ref="H18:H25" si="1">SUM(B18:G18)</f>
         <v>0.16969907407407409</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="6">
         <v>45268</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -750,18 +757,18 @@
       <c r="D19" s="2">
         <v>3.5937500000000004E-2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>4.9999999999999996E-2</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <f t="shared" si="1"/>
         <v>0.15405092592592592</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="6">
         <v>45268</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -771,18 +778,18 @@
       <c r="D20" s="2">
         <v>2.1527777777777781E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <f t="shared" si="1"/>
         <v>0.12949074074074074</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="6">
         <v>45269</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -792,18 +799,18 @@
       <c r="D21" s="2">
         <v>2.0659722222222222E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>4.1412037037037039E-2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <f t="shared" si="1"/>
         <v>0.10511574074074075</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="6">
         <v>45269</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -813,18 +820,18 @@
       <c r="D22" s="2">
         <v>1.7916666666666668E-2</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>4.8773148148148149E-2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <f t="shared" si="1"/>
         <v>0.11550925925925926</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="6">
         <v>45270</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -834,72 +841,74 @@
       <c r="D23" s="2">
         <v>1.7025462962962961E-2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>4.8043981481481479E-2</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <f t="shared" si="1"/>
         <v>9.2650462962962962E-2</v>
       </c>
-      <c r="I23" s="6">
+      <c r="J23" s="6">
         <v>45270</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="2">
         <v>5.0428240740740739E-2</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>4.4004629629629623E-2</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="1"/>
         <v>9.4432870370370361E-2</v>
       </c>
-      <c r="I24" s="6">
+      <c r="J24" s="6">
         <v>45270</v>
       </c>
-      <c r="J24" s="3">
-        <f>SUM(G17:G25)</f>
+      <c r="K24" s="3">
+        <f>SUM(H17:H25)</f>
         <v>1.1022337962962963</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J25" s="6">
         <v>45270</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -911,7 +920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911709F8-7877-48A6-BB4A-9C6194136CE6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3457E90-1C35-4D33-947C-3CBF4C5CEC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA04D47C-41A3-42E4-9E26-C8B9DCE0E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,30 @@
   </si>
   <si>
     <t>수치해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Euler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -918,14 +942,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911709F8-7877-48A6-BB4A-9C6194136CE6}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <f>D4+(C4+2*D4)*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>EXP(2*C5)/4-C5/2-1/4</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+      <c r="F5">
+        <f>ABS(E5-D5)</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D9" si="0">D5+(C5+2*D5)*0.2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E9" si="1">EXP(2*C6)/4-C6/2-1/4</f>
+        <v>0.10638523212311696</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F9" si="2">ABS(E6-D6)</f>
+        <v>6.638523212311695E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.28002923068413677</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.14402923068413676</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.58825810609877871</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.2778581060987787</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.59455999999999998</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1.0972640247326626</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.50270402473266262</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA04D47C-41A3-42E4-9E26-C8B9DCE0E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82507A6A-2F88-4A15-A6BC-C2328AE3429B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,26 @@
   </si>
   <si>
     <t>Euler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,20 +962,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911709F8-7877-48A6-BB4A-9C6194136CE6}">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H11" sqref="H11:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -972,7 +995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -989,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1009,7 +1032,7 @@
         <v>2.2956174410317609E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1029,7 +1052,7 @@
         <v>6.638523212311695E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1049,7 +1072,7 @@
         <v>0.14402923068413676</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1069,7 +1092,7 @@
         <v>0.2778581060987787</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1087,6 +1110,145 @@
       <c r="F9">
         <f t="shared" si="2"/>
         <v>0.50270402473266262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="O13">
+        <f>E5</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+      <c r="P13">
+        <f>ABS(O13-N13)</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0.4</v>
+      </c>
+      <c r="O14">
+        <f>E6</f>
+        <v>0.10638523212311696</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="3">ABS(O14-N14)</f>
+        <v>0.10638523212311696</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>0.6</v>
+      </c>
+      <c r="O15">
+        <f>E7</f>
+        <v>0.28002923068413677</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>0.28002923068413677</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>0.8</v>
+      </c>
+      <c r="O16">
+        <f>E8</f>
+        <v>0.58825810609877871</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>0.58825810609877871</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f>E9</f>
+        <v>1.0972640247326626</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>1.0972640247326626</v>
       </c>
     </row>
   </sheetData>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82507A6A-2F88-4A15-A6BC-C2328AE3429B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4271F34-E827-4B12-B538-555DF472F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>K4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시(y_n)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,15 +966,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911709F8-7877-48A6-BB4A-9C6194136CE6}">
-  <dimension ref="B2:P17"/>
+  <dimension ref="B2:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:P17"/>
+      <selection activeCell="K5" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -978,7 +982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -994,8 +998,26 @@
       <c r="F3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1011,8 +1033,26 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1031,8 +1071,30 @@
         <f>ABS(E5-D5)</f>
         <v>2.2956174410317609E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <f>K4+(I4+2*K4)*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>K4+((I4+2*K4)+(I5+2*J5))/2*0.2</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="L5">
+        <f>EXP(2*I5)/4-I5/2-1/4</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+      <c r="M5">
+        <f>ABS(L5-K5)</f>
+        <v>2.9561744103176052E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1051,8 +1113,30 @@
         <f t="shared" ref="F6:F9" si="2">ABS(E6-D6)</f>
         <v>6.638523212311695E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0.4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J9" si="3">K5+(I5+2*K5)*0.2</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K9" si="4">K5+((I5+2*K5)+(I6+2*J6))/2*0.2</f>
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L9" si="5">EXP(2*I6)/4-I6/2-1/4</f>
+        <v>0.10638523212311696</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M9" si="6">ABS(L6-K6)</f>
+        <v>8.7852321231169511E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1071,8 +1155,30 @@
         <f t="shared" si="2"/>
         <v>0.14402923068413676</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0.21664000000000003</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>0.26044800000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0.28002923068413677</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>1.9581230684136752E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1091,8 +1197,30 @@
         <f t="shared" si="2"/>
         <v>0.2778581060987787</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0.8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.48462720000000004</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>0.54946304000000001</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0.58825810609877871</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>3.8795066098778697E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1111,46 +1239,65 @@
         <f t="shared" si="2"/>
         <v>0.50270402473266262</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.92924825600000005</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1.0252052992</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>1.0972640247326626</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>7.2058725532662571E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>30</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>32</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>24</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>25</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
@@ -1164,90 +1311,93 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f>E4</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P12:P17" si="7">E4</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
         <v>0.2</v>
       </c>
-      <c r="O13">
-        <f>E5</f>
+      <c r="P13">
+        <f t="shared" si="7"/>
         <v>2.2956174410317609E-2</v>
       </c>
-      <c r="P13">
-        <f>ABS(O13-N13)</f>
+      <c r="Q13">
+        <f>ABS(P13-O13)</f>
         <v>2.2956174410317609E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
         <v>0.4</v>
       </c>
-      <c r="O14">
-        <f>E6</f>
+      <c r="P14">
+        <f t="shared" si="7"/>
         <v>0.10638523212311696</v>
       </c>
-      <c r="P14">
-        <f t="shared" ref="P14:P17" si="3">ABS(O14-N14)</f>
+      <c r="Q14">
+        <f t="shared" ref="Q14:Q17" si="8">ABS(P14-O14)</f>
         <v>0.10638523212311696</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15">
         <v>0.6</v>
       </c>
-      <c r="O15">
-        <f>E7</f>
+      <c r="P15">
+        <f t="shared" si="7"/>
         <v>0.28002923068413677</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
+      <c r="Q15">
+        <f t="shared" si="8"/>
         <v>0.28002923068413677</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16">
         <v>0.8</v>
       </c>
-      <c r="O16">
-        <f>E8</f>
+      <c r="P16">
+        <f t="shared" si="7"/>
         <v>0.58825810609877871</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
+      <c r="Q16">
+        <f t="shared" si="8"/>
         <v>0.58825810609877871</v>
       </c>
     </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="O17">
-        <f>E9</f>
+      <c r="P17">
+        <f t="shared" si="7"/>
         <v>1.0972640247326626</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
+      <c r="Q17">
+        <f t="shared" si="8"/>
         <v>1.0972640247326626</v>
       </c>
     </row>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4271F34-E827-4B12-B538-555DF472F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A0C52-98D4-4FC0-A30C-D57DBEB4678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,10 @@
   </si>
   <si>
     <t>임시(y_n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runge-Kutta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,15 +970,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911709F8-7877-48A6-BB4A-9C6194136CE6}">
-  <dimension ref="B2:Q17"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K4:K5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -982,7 +986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1052,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1094,7 +1098,7 @@
         <v>2.9561744103176052E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1136,7 +1140,7 @@
         <v>8.7852321231169511E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1178,7 +1182,7 @@
         <v>1.9581230684136752E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>3.8795066098778697E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1262,142 +1266,147 @@
         <v>7.2058725532662571E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="I11" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="L11" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="M11" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
-      <c r="N11" t="s">
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="O11" t="s">
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="P11" t="s">
+      <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="J12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" ref="P12:P17" si="7">E4</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="C14">
         <v>0.2</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="7"/>
+      <c r="I14">
+        <f>E5</f>
         <v>2.2956174410317609E-2</v>
       </c>
-      <c r="Q13">
-        <f>ABS(P13-O13)</f>
+      <c r="J14">
+        <f>ABS(I14-H14)</f>
         <v>2.2956174410317609E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H14">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="C15">
         <v>0.4</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="7"/>
+      <c r="I15">
+        <f>E6</f>
         <v>0.10638523212311696</v>
       </c>
-      <c r="Q14">
-        <f t="shared" ref="Q14:Q17" si="8">ABS(P14-O14)</f>
+      <c r="J15">
+        <f t="shared" ref="J15:J18" si="7">ABS(I15-H15)</f>
         <v>0.10638523212311696</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H15">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="C16">
         <v>0.6</v>
       </c>
-      <c r="P15">
+      <c r="I16">
+        <f>E7</f>
+        <v>0.28002923068413677</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="7"/>
         <v>0.28002923068413677</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="8"/>
-        <v>0.28002923068413677</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="H16">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="C17">
         <v>0.8</v>
       </c>
-      <c r="P16">
+      <c r="I17">
+        <f>E8</f>
+        <v>0.58825810609877871</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="7"/>
         <v>0.58825810609877871</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="8"/>
-        <v>0.58825810609877871</v>
-      </c>
-    </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.3">
-      <c r="H17">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="P17">
+      <c r="I18">
+        <f>E9</f>
+        <v>1.0972640247326626</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="7"/>
-        <v>1.0972640247326626</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="8"/>
         <v>1.0972640247326626</v>
       </c>
     </row>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A0C52-98D4-4FC0-A30C-D57DBEB4678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF188E5-DE00-430C-9F00-051A451C4415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -973,7 +973,7 @@
   <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:J18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f>E4</f>
+        <f t="shared" ref="I13:I18" si="7">E4</f>
         <v>0</v>
       </c>
       <c r="J13">
@@ -1337,13 +1337,33 @@
       <c r="C14">
         <v>0.2</v>
       </c>
+      <c r="D14">
+        <f>C13+2*H13</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>(C13+0.1)+2*(H13+D14*0.1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <f>(C13+0.1)+2*(H13+E14*0.1)</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="G14">
+        <f>(C13+0.2)+2*(H13+F14*0.2)</f>
+        <v>0.24800000000000003</v>
+      </c>
+      <c r="H14">
+        <f>H13+(D14+E14*2+F14*2+G14)/6*0.2</f>
+        <v>2.2933333333333337E-2</v>
+      </c>
       <c r="I14">
-        <f>E5</f>
+        <f t="shared" si="7"/>
         <v>2.2956174410317609E-2</v>
       </c>
       <c r="J14">
         <f>ABS(I14-H14)</f>
-        <v>2.2956174410317609E-2</v>
+        <v>2.2841076984272263E-5</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1353,13 +1373,33 @@
       <c r="C15">
         <v>0.4</v>
       </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D18" si="8">C14+2*H14</f>
+        <v>0.24586666666666668</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E18" si="9">(C14+0.1)+2*(H14+D15*0.1)</f>
+        <v>0.39504000000000006</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F18" si="10">(C14+0.1)+2*(H14+E15*0.1)</f>
+        <v>0.42487466666666673</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="11">(C14+0.2)+2*(H14+F15*0.2)</f>
+        <v>0.61581653333333342</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H18" si="12">H14+(D15+E15*2+F15*2+G15)/6*0.2</f>
+        <v>0.10631708444444446</v>
+      </c>
       <c r="I15">
-        <f>E6</f>
+        <f t="shared" si="7"/>
         <v>0.10638523212311696</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J18" si="7">ABS(I15-H15)</f>
-        <v>0.10638523212311696</v>
+        <f t="shared" ref="J15:J18" si="13">ABS(I15-H15)</f>
+        <v>6.8147678672497713E-5</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
@@ -1369,13 +1409,33 @@
       <c r="C16">
         <v>0.6</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="8"/>
+        <v>0.612634168888889</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="9"/>
+        <v>0.83516100266666671</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="10"/>
+        <v>0.87966636942222221</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="11"/>
+        <v>1.1645007166577779</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="12"/>
+        <v>0.27987673876859265</v>
+      </c>
       <c r="I16">
-        <f>E7</f>
-        <v>0.28002923068413677</v>
-      </c>
-      <c r="J16">
         <f t="shared" si="7"/>
         <v>0.28002923068413677</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="13"/>
+        <v>1.5249191554411734E-4</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
@@ -1385,13 +1445,33 @@
       <c r="C17">
         <v>0.8</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="8"/>
+        <v>1.1597534775371852</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="9"/>
+        <v>1.4917041730446223</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="10"/>
+        <v>1.5580943121461097</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="11"/>
+        <v>1.9829912023956293</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="12"/>
+        <v>0.58795479377906856</v>
+      </c>
       <c r="I17">
-        <f>E8</f>
-        <v>0.58825810609877871</v>
-      </c>
-      <c r="J17">
         <f t="shared" si="7"/>
         <v>0.58825810609877871</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="13"/>
+        <v>3.0331231971014727E-4</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
@@ -1401,13 +1481,33 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="8"/>
+        <v>1.9759095875581372</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="9"/>
+        <v>2.4710915050697646</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="10"/>
+        <v>2.57012788857209</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="11"/>
+        <v>3.2039607429869732</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="12"/>
+        <v>1.0966984310400294</v>
+      </c>
       <c r="I18">
-        <f>E9</f>
-        <v>1.0972640247326626</v>
-      </c>
-      <c r="J18">
         <f t="shared" si="7"/>
         <v>1.0972640247326626</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="13"/>
+        <v>5.6559369263320391E-4</v>
       </c>
     </row>
   </sheetData>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF188E5-DE00-430C-9F00-051A451C4415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC4B2AB-BFD8-46E5-B661-C496AE42B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,42 @@
   </si>
   <si>
     <t>Runge-Kutta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,15 +1006,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911709F8-7877-48A6-BB4A-9C6194136CE6}">
-  <dimension ref="B2:M18"/>
+  <dimension ref="B2:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -986,7 +1022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -1021,7 +1057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -1055,8 +1091,50 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1097,8 +1175,50 @@
         <f>ABS(L5-K5)</f>
         <v>2.9561744103176052E-3</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1139,8 +1259,62 @@
         <f t="shared" ref="M6:M9" si="6">ABS(L6-K6)</f>
         <v>8.7852321231169511E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0.2</v>
+      </c>
+      <c r="Q6">
+        <f>Y5</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>Y5+U6*0.1</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f>Y5+V6*0.1</f>
+        <v>1.0099666833293657</v>
+      </c>
+      <c r="T6">
+        <f>Y5+W6*0.2</f>
+        <v>1.0199333666587314</v>
+      </c>
+      <c r="U6">
+        <f>-Z5+2*SIN(P5)</f>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>-(Z5+Q6*0.1)+2*SIN(P5+0.1)</f>
+        <v>9.9666833293656304E-2</v>
+      </c>
+      <c r="W6">
+        <f>-(Z5+R6*0.1)+2*SIN(P5+0.1)</f>
+        <v>9.9666833293656304E-2</v>
+      </c>
+      <c r="X6">
+        <f>-(Z5+S6*0.2)+2*SIN(P5+0.2)</f>
+        <v>0.19534532492424928</v>
+      </c>
+      <c r="Y6">
+        <f>Y5+(U6+V6*2+W6*2+X6)/6*0.2</f>
+        <v>1.0198004219366292</v>
+      </c>
+      <c r="Z6">
+        <f>Z5+(Q6+R6*2+S6*2+T6)/6*0.2</f>
+        <v>0.20132889111058214</v>
+      </c>
+      <c r="AA6">
+        <f>2*SIN(P6)-P6*COS(P6)</f>
+        <v>0.2013253460218741</v>
+      </c>
+      <c r="AB6">
+        <f>ABS(AA6-Z6)</f>
+        <v>3.545088708034605E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1181,8 +1355,62 @@
         <f t="shared" si="6"/>
         <v>1.9581230684136752E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>0.4</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q10" si="7">Y6</f>
+        <v>1.0198004219366292</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R10" si="8">Y6+U7*0.1</f>
+        <v>1.0394013989845832</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7:S10" si="9">Y6+V7*0.1</f>
+        <v>1.0485735699384726</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7:T10" si="10">Y6+W7*0.2</f>
+        <v>1.076954698399357</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:U10" si="11">-Z6+2*SIN(P6)</f>
+        <v>0.1960097704795403</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:V10" si="12">-(Z6+Q7*0.1)+2*SIN(P6+0.1)</f>
+        <v>0.28773148001843413</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W10" si="13">-(Z6+R7*0.1)+2*SIN(P6+0.1)</f>
+        <v>0.28577138231363874</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7:X10" si="14">-(Z6+S7*0.2)+2*SIN(P6+0.2)</f>
+        <v>0.3677930795190244</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y10" si="15">Y6+(U7+V7*2+W7*2+X7)/6*0.2</f>
+        <v>1.0768273744253862</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ref="Z7:Z10" si="16">Z6+(Q7+R7*2+S7*2+T7)/6*0.2</f>
+        <v>0.41041905971665205</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ref="AA7:AA10" si="17">2*SIN(P7)-P7*COS(P7)</f>
+        <v>0.41041228701614696</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ref="AB7:AB10" si="18">ABS(AA7-Z7)</f>
+        <v>6.772700505086604E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1223,8 +1451,62 @@
         <f t="shared" si="6"/>
         <v>3.8795066098778697E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>0.6</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>1.0768273744253862</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>1.1136691369154512</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="9"/>
+        <v>1.1209023024303078</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="10"/>
+        <v>1.1642403951854279</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="11"/>
+        <v>0.368417624900649</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="12"/>
+        <v>0.44074928004921532</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="13"/>
+        <v>0.4370651038002088</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="14"/>
+        <v>0.49468542658735737</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="15"/>
+        <v>1.1641184350649481</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="16"/>
+        <v>0.63409274799339643</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="17"/>
+        <v>0.63408357784426372</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="18"/>
+        <v>9.1701491327089713E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1265,13 +1547,123 @@
         <f t="shared" si="6"/>
         <v>7.2058725532662571E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>0.8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>1.1641184350649481</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>1.2136376549446155</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="9"/>
+        <v>1.2179115133624971</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="10"/>
+        <v>1.2707142072624529</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="11"/>
+        <v>0.49519219879667431</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="12"/>
+        <v>0.5379307829754908</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="13"/>
+        <v>0.53297886098752401</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="14"/>
+        <v>0.55703713113314968</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="15"/>
+        <v>1.2705867223268099</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="16"/>
+        <v>0.87735711395811733</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="17"/>
+        <v>0.87734681432131323</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="18"/>
+        <v>1.0299636804100842E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>1.2705867223268099</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>1.3263222291109027</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="9"/>
+        <v>1.3268105256332268</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="10"/>
+        <v>1.3819196188039617</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="11"/>
+        <v>0.55735506784092825</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="12"/>
+        <v>0.56223803306416853</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="13"/>
+        <v>0.55666448238575916</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="14"/>
+        <v>0.54022275053103019</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="15"/>
+        <v>1.3817661506358703</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="16"/>
+        <v>1.1426495089787516</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="17"/>
+        <v>1.1426396637476532</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="18"/>
+        <v>9.8452310983709879E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +1692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1323,14 +1715,14 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" ref="I13:I18" si="7">E4</f>
+        <f t="shared" ref="I13:I18" si="19">E4</f>
         <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -1358,7 +1750,7 @@
         <v>2.2933333333333337E-2</v>
       </c>
       <c r="I14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.2956174410317609E-2</v>
       </c>
       <c r="J14">
@@ -1366,7 +1758,7 @@
         <v>2.2841076984272263E-5</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>2</v>
       </c>
@@ -1374,35 +1766,35 @@
         <v>0.4</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D18" si="8">C14+2*H14</f>
+        <f t="shared" ref="D15:D18" si="20">C14+2*H14</f>
         <v>0.24586666666666668</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E18" si="9">(C14+0.1)+2*(H14+D15*0.1)</f>
+        <f t="shared" ref="E15:E18" si="21">(C14+0.1)+2*(H14+D15*0.1)</f>
         <v>0.39504000000000006</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F18" si="10">(C14+0.1)+2*(H14+E15*0.1)</f>
+        <f t="shared" ref="F15:F18" si="22">(C14+0.1)+2*(H14+E15*0.1)</f>
         <v>0.42487466666666673</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G18" si="11">(C14+0.2)+2*(H14+F15*0.2)</f>
+        <f t="shared" ref="G15:G18" si="23">(C14+0.2)+2*(H14+F15*0.2)</f>
         <v>0.61581653333333342</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H18" si="12">H14+(D15+E15*2+F15*2+G15)/6*0.2</f>
+        <f t="shared" ref="H15:H18" si="24">H14+(D15+E15*2+F15*2+G15)/6*0.2</f>
         <v>0.10631708444444446</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.10638523212311696</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:J18" si="13">ABS(I15-H15)</f>
+        <f t="shared" ref="J15:J18" si="25">ABS(I15-H15)</f>
         <v>6.8147678672497713E-5</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>3</v>
       </c>
@@ -1410,31 +1802,31 @@
         <v>0.6</v>
       </c>
       <c r="D16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.612634168888889</v>
       </c>
       <c r="E16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.83516100266666671</v>
       </c>
       <c r="F16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.87966636942222221</v>
       </c>
       <c r="G16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.1645007166577779</v>
       </c>
       <c r="H16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.27987673876859265</v>
       </c>
       <c r="I16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.28002923068413677</v>
       </c>
       <c r="J16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.5249191554411734E-4</v>
       </c>
     </row>
@@ -1446,31 +1838,31 @@
         <v>0.8</v>
       </c>
       <c r="D17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.1597534775371852</v>
       </c>
       <c r="E17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.4917041730446223</v>
       </c>
       <c r="F17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.5580943121461097</v>
       </c>
       <c r="G17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.9829912023956293</v>
       </c>
       <c r="H17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>0.58795479377906856</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.58825810609877871</v>
       </c>
       <c r="J17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.0331231971014727E-4</v>
       </c>
     </row>
@@ -1482,31 +1874,31 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.9759095875581372</v>
       </c>
       <c r="E18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>2.4710915050697646</v>
       </c>
       <c r="F18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.57012788857209</v>
       </c>
       <c r="G18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>3.2039607429869732</v>
       </c>
       <c r="H18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1.0966984310400294</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0972640247326626</v>
       </c>
       <c r="J18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5.6559369263320391E-4</v>
       </c>
     </row>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC4B2AB-BFD8-46E5-B661-C496AE42B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB442DC6-E580-4DDE-B977-7E8CAB4E73C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="math" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +114,6 @@
     <t>8회차</t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수치해석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +203,14 @@
   </si>
   <si>
     <t>v_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀 제외하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,6 +778,11 @@
         <v>0.81451388888888898</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -786,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>13</v>
@@ -802,12 +813,15 @@
       <c r="D17" s="2">
         <v>6.7685185185185182E-2</v>
       </c>
+      <c r="F17" s="2">
+        <v>0.10480324074074075</v>
+      </c>
       <c r="G17" s="2">
         <v>6.7858796296296306E-2</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(B17:G17)</f>
-        <v>0.24128472222222225</v>
+        <v>0.34608796296296301</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="6">
@@ -962,7 +976,7 @@
       </c>
       <c r="K24" s="3">
         <f>SUM(H17:H25)</f>
-        <v>1.1022337962962963</v>
+        <v>1.2070370370370371</v>
       </c>
       <c r="L24" s="5">
         <v>1</v>
@@ -972,11 +986,11 @@
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>20</v>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="1"/>
@@ -1008,53 +1022,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911709F8-7877-48A6-BB4A-9C6194136CE6}">
   <dimension ref="B2:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
       <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
@@ -1092,46 +1106,46 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W4" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>25</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.3">
@@ -1244,19 +1258,19 @@
         <v>0.4</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J9" si="3">K5+(I5+2*K5)*0.2</f>
+        <f>K5+(I5+2*K5)*0.2</f>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K9" si="4">K5+((I5+2*K5)+(I6+2*J6))/2*0.2</f>
+        <f t="shared" ref="K6:K9" si="3">K5+((I5+2*K5)+(I6+2*J6))/2*0.2</f>
         <v>9.7600000000000006E-2</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L9" si="5">EXP(2*I6)/4-I6/2-1/4</f>
+        <f t="shared" ref="L6:L9" si="4">EXP(2*I6)/4-I6/2-1/4</f>
         <v>0.10638523212311696</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M9" si="6">ABS(L6-K6)</f>
+        <f t="shared" ref="M6:M9" si="5">ABS(L6-K6)</f>
         <v>8.7852321231169511E-3</v>
       </c>
       <c r="O6">
@@ -1340,19 +1354,19 @@
         <v>0.6</v>
       </c>
       <c r="J7">
+        <f t="shared" ref="J6:J9" si="6">K6+(I6+2*K6)*0.2</f>
+        <v>0.21664000000000003</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="3"/>
-        <v>0.21664000000000003</v>
-      </c>
-      <c r="K7">
+        <v>0.26044800000000001</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="4"/>
-        <v>0.26044800000000001</v>
-      </c>
-      <c r="L7">
+        <v>0.28002923068413677</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="5"/>
-        <v>0.28002923068413677</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
         <v>1.9581230684136752E-2</v>
       </c>
       <c r="O7">
@@ -1436,19 +1450,19 @@
         <v>0.8</v>
       </c>
       <c r="J8">
+        <f t="shared" si="6"/>
+        <v>0.48462720000000004</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="3"/>
-        <v>0.48462720000000004</v>
-      </c>
-      <c r="K8">
+        <v>0.54946304000000001</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="4"/>
-        <v>0.54946304000000001</v>
-      </c>
-      <c r="L8">
+        <v>0.58825810609877871</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="5"/>
-        <v>0.58825810609877871</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
         <v>3.8795066098778697E-2</v>
       </c>
       <c r="O8">
@@ -1532,19 +1546,19 @@
         <v>1</v>
       </c>
       <c r="J9">
+        <f t="shared" si="6"/>
+        <v>0.92924825600000005</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="3"/>
-        <v>0.92924825600000005</v>
-      </c>
-      <c r="K9">
+        <v>1.0252052992</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="4"/>
-        <v>1.0252052992</v>
-      </c>
-      <c r="L9">
+        <v>1.0972640247326626</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="5"/>
-        <v>1.0972640247326626</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="6"/>
         <v>7.2058725532662571E-2</v>
       </c>
       <c r="O9">
@@ -1660,36 +1674,36 @@
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
@@ -1900,6 +1914,729 @@
       <c r="J18">
         <f t="shared" si="25"/>
         <v>5.6559369263320391E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360B1A10-8F29-4ABC-BC0B-AD620974104B}">
+  <dimension ref="A2:V8"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:AK9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="21" max="21" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>ABS(D3-C3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>ABS(K3-J3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>ABS(U3-T3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <f>C3+(B3+2*C3)*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>EXP(2*B4)/4 - B4/2 - 1/4</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+      <c r="E4">
+        <f>ABS(D4-C4)</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <f>J3+(H3+2*J3)*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>J3+((H3+2*J3)+(H4+2*I4))/2*0.2</f>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="K4">
+        <f>D4</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+      <c r="L4">
+        <f>ABS(K4-J4)</f>
+        <v>2.9561744103176052E-3</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0.2</v>
+      </c>
+      <c r="P4">
+        <f>O3+2*T3</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>(O3+0.1)+2*(T3+P4*0.1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="R4">
+        <f>(O3+0.1)+2*(T3+Q4*0.1)</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="S4">
+        <f>(O3+0.2)+2*(T3+R4*0.2)</f>
+        <v>0.24800000000000003</v>
+      </c>
+      <c r="T4">
+        <f>T3+(P4+Q4*2+R4*2+S4)/6*0.2</f>
+        <v>2.2933333333333337E-2</v>
+      </c>
+      <c r="U4">
+        <f>K4</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+      <c r="V4">
+        <f>ABS(U4-T4)</f>
+        <v>2.2841076984272263E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <f>C4+(B4+2*C4)*0.2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="D5">
+        <f>EXP(2*B5)/4 - B5/2 - 1/4</f>
+        <v>0.10638523212311696</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E7" si="0">ABS(D5-C5)</f>
+        <v>6.638523212311695E-2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I8" si="1">J4+(H4+2*J4)*0.2</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J8" si="2">J4+((H4+2*J4)+(H5+2*I5))/2*0.2</f>
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K8" si="3">D5</f>
+        <v>0.10638523212311696</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L8" si="4">ABS(K5-J5)</f>
+        <v>8.7852321231169511E-3</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0.4</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P8" si="5">O4+2*T4</f>
+        <v>0.24586666666666668</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q8" si="6">(O4+0.1)+2*(T4+P5*0.1)</f>
+        <v>0.39504000000000006</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R8" si="7">(O4+0.1)+2*(T4+Q5*0.1)</f>
+        <v>0.42487466666666673</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S8" si="8">(O4+0.2)+2*(T4+R5*0.2)</f>
+        <v>0.61581653333333342</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T8" si="9">T4+(P5+Q5*2+R5*2+S5)/6*0.2</f>
+        <v>0.10631708444444446</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:U8" si="10">K5</f>
+        <v>0.10638523212311696</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V8" si="11">ABS(U5-T5)</f>
+        <v>6.8147678672497713E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <f>C5+(B5+2*C5)*0.2</f>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D6">
+        <f>EXP(2*B6)/4 - B6/2 - 1/4</f>
+        <v>0.28002923068413677</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.14402923068413676</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.21664000000000003</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.26044800000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.28002923068413677</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1.9581230684136752E-2</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>0.6</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0.612634168888889</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0.83516100266666671</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>0.87966636942222221</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="8"/>
+        <v>1.1645007166577779</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>0.27987673876859265</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="10"/>
+        <v>0.28002923068413677</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="11"/>
+        <v>1.5249191554411734E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <f>C6+(B6+2*C6)*0.2</f>
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="D7">
+        <f>EXP(2*B7)/4 - B7/2 - 1/4</f>
+        <v>0.58825810609877871</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.2778581060987787</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.48462720000000004</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.54946304000000001</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.58825810609877871</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>3.8795066098778697E-2</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>0.8</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>1.1597534775371852</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>1.4917041730446223</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>1.5580943121461097</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="8"/>
+        <v>1.9829912023956293</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>0.58795479377906856</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="10"/>
+        <v>0.58825810609877871</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="11"/>
+        <v>3.0331231971014727E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>C7+(B7+2*C7)*0.2</f>
+        <v>0.59455999999999998</v>
+      </c>
+      <c r="D8">
+        <f>EXP(2*B8)/4 - B8/2 - 1/4</f>
+        <v>1.0972640247326626</v>
+      </c>
+      <c r="E8">
+        <f>ABS(D8-C8)</f>
+        <v>0.50270402473266262</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.92924825600000005</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1.0252052992</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>1.0972640247326626</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>7.2058725532662571E-2</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>1.9759095875581372</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>2.4710915050697646</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>2.57012788857209</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>3.2039607429869732</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>1.0966984310400294</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="10"/>
+        <v>1.0972640247326626</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="11"/>
+        <v>5.6559369263320391E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150CB5F5-0579-4DD2-B7D9-E1214C299C69}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>ABS(M2-L2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <f>K2</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>K2+G3*0.1</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>K2+H3*0.1</f>
+        <v>1.0099666833293657</v>
+      </c>
+      <c r="F3">
+        <f>K2+I3*0.2</f>
+        <v>1.0199333666587314</v>
+      </c>
+      <c r="G3">
+        <f>-L2+2*SIN(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>-(L2+0.1)+2*SIN(B2+C3*0.1)</f>
+        <v>9.9666833293656304E-2</v>
+      </c>
+      <c r="I3">
+        <f>-(L2+0.1)+2*SIN(B2+D3*0.1)</f>
+        <v>9.9666833293656304E-2</v>
+      </c>
+      <c r="J3">
+        <f>-(L2+0.2)+2*SIN(B2+E3*0.2)</f>
+        <v>0.20124507490118054</v>
+      </c>
+      <c r="N3">
+        <f>ABS(M3-L3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="N4">
+        <f>ABS(M4-L4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="N5">
+        <f>ABS(M5-L5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="N6">
+        <f>ABS(M6-L6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f>ABS(M7-L7)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB442DC6-E580-4DDE-B977-7E8CAB4E73C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E279E72F-B16D-4769-8B84-53C52A21131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="4" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="math" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,7 +607,7 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -838,12 +839,15 @@
       <c r="D18" s="2">
         <v>2.9166666666666664E-2</v>
       </c>
+      <c r="F18" s="2">
+        <v>8.0555555555555561E-2</v>
+      </c>
       <c r="G18" s="2">
         <v>6.8414351851851851E-2</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ref="H18:H25" si="1">SUM(B18:G18)</f>
-        <v>0.16969907407407409</v>
+        <v>0.25025462962962963</v>
       </c>
       <c r="J18" s="6">
         <v>45268</v>
@@ -976,7 +980,7 @@
       </c>
       <c r="K24" s="3">
         <f>SUM(H17:H25)</f>
-        <v>1.2070370370370371</v>
+        <v>1.2875925925925926</v>
       </c>
       <c r="L24" s="5">
         <v>1</v>
@@ -1354,7 +1358,7 @@
         <v>0.6</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J6:J9" si="6">K6+(I6+2*K6)*0.2</f>
+        <f t="shared" ref="J7:J9" si="6">K6+(I6+2*K6)*0.2</f>
         <v>0.21664000000000003</v>
       </c>
       <c r="K7">
@@ -2452,191 +2456,533 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150CB5F5-0579-4DD2-B7D9-E1214C299C69}">
   <dimension ref="A1:N7"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N7" si="0">ABS(M2-L2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <f>K2</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>K2+G3*0.1</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>K2+H3*0.1</f>
+        <v>1.0099666833293657</v>
+      </c>
+      <c r="F3">
+        <f>K2+I3*0.2</f>
+        <v>1.0199333666587314</v>
+      </c>
+      <c r="G3">
+        <f>-L2+2*SIN(B2)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>-(L2+C3*0.1)+2*SIN(B2+0.1)</f>
+        <v>9.9666833293656304E-2</v>
+      </c>
+      <c r="I3">
+        <f>-(L2+D3*0.1)+2*SIN(B2+0.1)</f>
+        <v>9.9666833293656304E-2</v>
+      </c>
+      <c r="J3">
+        <f>-(L2+E3*0.2)+2*SIN(B2+0.2)</f>
+        <v>0.19534532492424928</v>
+      </c>
+      <c r="K3">
+        <f>K2+(G3+H3*2+I3*2+J3)/6*0.2</f>
+        <v>1.0198004219366292</v>
+      </c>
+      <c r="L3">
+        <f>L2+(C3+D3*2+E3*2+F3)/6*0.2</f>
+        <v>0.20132889111058214</v>
+      </c>
+      <c r="M3">
+        <f>2*SIN(B3)-B3*COS(B3)</f>
+        <v>0.2013253460218741</v>
+      </c>
+      <c r="N3">
+        <f>ABS(L3-M3)</f>
+        <v>3.545088708034605E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C7" si="1">K3</f>
+        <v>1.0198004219366292</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="2">K3+G4*0.1</f>
+        <v>1.0394013989845832</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E7" si="3">K3+H4*0.1</f>
+        <v>1.0485735699384726</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F7" si="4">K3+I4*0.2</f>
+        <v>1.076954698399357</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G7" si="5">-L3+2*SIN(B3)</f>
+        <v>0.1960097704795403</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="6">-(L3+C4*0.1)+2*SIN(B3+0.1)</f>
+        <v>0.28773148001843413</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I7" si="7">-(L3+D4*0.1)+2*SIN(B3+0.1)</f>
+        <v>0.28577138231363874</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J7" si="8">-(L3+E4*0.2)+2*SIN(B3+0.2)</f>
+        <v>0.3677930795190244</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K7" si="9">K3+(G4+H4*2+I4*2+J4)/6*0.2</f>
+        <v>1.0768273744253862</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="10">L3+(C4+D4*2+E4*2+F4)/6*0.2</f>
+        <v>0.41041905971665205</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="11">2*SIN(B4)-B4*COS(B4)</f>
+        <v>0.41041228701614696</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N7" si="12">ABS(L4-M4)</f>
+        <v>6.772700505086604E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>1.0768273744253862</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>1.1136691369154512</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1.1209023024303078</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>1.1642403951854279</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>0.368417624900649</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="6"/>
+        <v>0.44074928004921532</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="7"/>
+        <v>0.4370651038002088</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="8"/>
+        <v>0.49468542658735737</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="9"/>
+        <v>1.1641184350649481</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="10"/>
+        <v>0.63409274799339643</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="11"/>
+        <v>0.63408357784426372</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="12"/>
+        <v>9.1701491327089713E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>1.1641184350649481</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1.2136376549446155</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>1.2179115133624971</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>1.2707142072624529</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>0.49519219879667431</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>0.5379307829754908</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="7"/>
+        <v>0.53297886098752401</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="8"/>
+        <v>0.55703713113314968</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="9"/>
+        <v>1.2705867223268099</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="10"/>
+        <v>0.87735711395811733</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="11"/>
+        <v>0.87734681432131323</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="12"/>
+        <v>1.0299636804100842E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>1.2705867223268099</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>1.3263222291109027</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1.3268105256332268</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>1.3819196188039617</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>0.55735506784092825</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>0.56223803306416853</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="7"/>
+        <v>0.55666448238575916</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>0.54022275053103019</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="9"/>
+        <v>1.3817661506358703</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="10"/>
+        <v>1.1426495089787516</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="11"/>
+        <v>1.1426396637476532</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="12"/>
+        <v>9.8452310983709879E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34632F7B-C9AB-4591-8DBB-ABFB75708F8A}">
+  <dimension ref="A2:E8"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>ABS(D3-C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>ABS(M2-L2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <f>C3+(B3+C3*2)*0.2</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>EXP(2*B4)/4-B4/2-1/4</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E8" si="0">ABS(D4-C4)</f>
+        <v>2.2956174410317609E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C8" si="1">C4+(B4+C4*2)*0.2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D8" si="2">EXP(2*B5)/4-B5/2-1/4</f>
+        <v>0.10638523212311696</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.638523212311695E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.28002923068413677</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.14402923068413676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.31040000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0.58825810609877871</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.2778581060987787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-      <c r="C3">
-        <f>K2</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>K2+G3*0.1</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f>K2+H3*0.1</f>
-        <v>1.0099666833293657</v>
-      </c>
-      <c r="F3">
-        <f>K2+I3*0.2</f>
-        <v>1.0199333666587314</v>
-      </c>
-      <c r="G3">
-        <f>-L2+2*SIN(B2)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>-(L2+0.1)+2*SIN(B2+C3*0.1)</f>
-        <v>9.9666833293656304E-2</v>
-      </c>
-      <c r="I3">
-        <f>-(L2+0.1)+2*SIN(B2+D3*0.1)</f>
-        <v>9.9666833293656304E-2</v>
-      </c>
-      <c r="J3">
-        <f>-(L2+0.2)+2*SIN(B2+E3*0.2)</f>
-        <v>0.20124507490118054</v>
-      </c>
-      <c r="N3">
-        <f>ABS(M3-L3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.4</v>
-      </c>
-      <c r="N4">
-        <f>ABS(M4-L4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.6</v>
-      </c>
-      <c r="N5">
-        <f>ABS(M5-L5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.8</v>
-      </c>
-      <c r="N6">
-        <f>ABS(M6-L6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f>ABS(M7-L7)</f>
-        <v>0</v>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.59455999999999998</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>1.0972640247326626</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.50270402473266262</v>
       </c>
     </row>
   </sheetData>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A614BA-C49D-43C2-9D99-DF979BD6FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8AE5D5-DC50-45E5-A692-97736C9673C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +205,6 @@
   </si>
   <si>
     <t>엑셀 제외하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +603,7 @@
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -846,7 +842,7 @@
         <v>6.8414351851851851E-2</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" ref="H18:H25" si="1">SUM(B18:G18)</f>
+        <f t="shared" ref="H18:H24" si="1">SUM(B18:G18)</f>
         <v>0.25025462962962963</v>
       </c>
       <c r="J18" s="6">
@@ -980,7 +976,7 @@
       </c>
       <c r="K24" s="3">
         <f>SUM(H17:H25)</f>
-        <v>1.2875925925925926</v>
+        <v>1.4064583333333334</v>
       </c>
       <c r="L24" s="5">
         <v>1</v>
@@ -990,15 +986,15 @@
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>44</v>
+      <c r="C25" s="2">
+        <v>5.7326388888888892E-2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6.1539351851851852E-2</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(C25:G25)</f>
+        <v>0.11886574074074074</v>
       </c>
       <c r="J25" s="6">
         <v>45270</v>
@@ -1027,7 +1023,7 @@
   <dimension ref="A2:V18"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AF9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1640,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f>ABS(M13-L13)</f>
+        <f t="shared" ref="N13:N18" si="21">ABS(M13-L13)</f>
         <v>0</v>
       </c>
       <c r="O13">
@@ -1699,7 +1695,7 @@
         <v>0.2013253460218741</v>
       </c>
       <c r="N14">
-        <f>ABS(M14-L14)</f>
+        <f t="shared" si="21"/>
         <v>3.545088708034605E-6</v>
       </c>
     </row>
@@ -1755,7 +1751,7 @@
         <v>0.41041228701614696</v>
       </c>
       <c r="N15">
-        <f>ABS(M15-L15)</f>
+        <f t="shared" si="21"/>
         <v>6.772700505086604E-6</v>
       </c>
     </row>
@@ -1811,7 +1807,7 @@
         <v>0.63408357784426372</v>
       </c>
       <c r="N16">
-        <f>ABS(M16-L16)</f>
+        <f t="shared" si="21"/>
         <v>9.1701491327089713E-6</v>
       </c>
     </row>
@@ -1867,7 +1863,7 @@
         <v>0.87734681432131323</v>
       </c>
       <c r="N17">
-        <f>ABS(M17-L17)</f>
+        <f t="shared" si="21"/>
         <v>1.0299636804100842E-5</v>
       </c>
     </row>
@@ -1923,7 +1919,7 @@
         <v>1.1426396637476532</v>
       </c>
       <c r="N18">
-        <f>ABS(M18-L18)</f>
+        <f t="shared" si="21"/>
         <v>9.8452310983709879E-6</v>
       </c>
     </row>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8AE5D5-DC50-45E5-A692-97736C9673C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3037E1-FEC9-44D2-89B5-5A91E004FDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
-  <dimension ref="A2:L27"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1011,6 +1011,14 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.1237037037037037</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameProjectReport/Study Time.xlsx
+++ b/GameProjectReport/Study Time.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Project\Projects\UnrealEngine_Study\GameProjectReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3037E1-FEC9-44D2-89B5-5A91E004FDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CAAAD9-73D3-4997-87C9-1B3C9F8007F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA7FFE42-10E7-45CA-8715-DBE7BED12626}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Time" sheetId="1" r:id="rId1"/>
-    <sheet name="math" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="math" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>자연어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +206,10 @@
   </si>
   <si>
     <t>엑셀 제외하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연처</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194E4190-A752-4E15-AA67-A22ED6FEFD0D}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1027,6 +1032,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DB10B9-7159-4525-9CB0-DD5021523861}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34632F7B-C9AB-4591-8DBB-ABFB75708F8A}">
   <dimension ref="A2:V18"/>
   <sheetViews>
